--- a/Documents/AshlieGray_T1A3/src/Test cases.xlsx
+++ b/Documents/AshlieGray_T1A3/src/Test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/assessment/AshlieGray _T1A3_2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89107269-B3D5-0B48-8E5E-E6DCA5442555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16CF996-FB4C-C545-A31F-5920F8CDE4A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16580" xr2:uid="{F9AB855E-31D2-3347-BB34-03DAD58A867C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>Test</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Conculsion</t>
   </si>
   <si>
-    <t>saving log to csv file</t>
-  </si>
-  <si>
     <t>no existing file</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>test passes</t>
   </si>
   <si>
-    <t>saving user to csv file data base</t>
-  </si>
-  <si>
     <t>prompts user to add user</t>
   </si>
   <si>
@@ -80,12 +74,6 @@
     <t>code wrong, need error handling, test failed</t>
   </si>
   <si>
-    <t>code is wrong, test failed</t>
-  </si>
-  <si>
-    <t>saving patient to csv file data base</t>
-  </si>
-  <si>
     <t>no existing csv file</t>
   </si>
   <si>
@@ -165,6 +153,66 @@
   </si>
   <si>
     <t>test failed, check data type with TTY Table documentation</t>
+  </si>
+  <si>
+    <t>add log to csv file</t>
+  </si>
+  <si>
+    <t>code running before log can be added to create, test failed</t>
+  </si>
+  <si>
+    <t>add user to csv file data base</t>
+  </si>
+  <si>
+    <t>add patient to csv file data base</t>
+  </si>
+  <si>
+    <t>input required</t>
+  </si>
+  <si>
+    <t>no preset parameter</t>
+  </si>
+  <si>
+    <t>preset parameter</t>
+  </si>
+  <si>
+    <t>can not progress in app if no input submitted</t>
+  </si>
+  <si>
+    <t>progress in app without entering any data</t>
+  </si>
+  <si>
+    <t>need user to give input, code issue, set parameter within TTY prompt</t>
+  </si>
+  <si>
+    <t>user prompted for input</t>
+  </si>
+  <si>
+    <t>value required' prompt, user cannot progress</t>
+  </si>
+  <si>
+    <t>length of input</t>
+  </si>
+  <si>
+    <t>with integers</t>
+  </si>
+  <si>
+    <t>with strings</t>
+  </si>
+  <si>
+    <t>user only able to enter 2 digit numbers</t>
+  </si>
+  <si>
+    <t>user only able to enter &lt; 15 characters</t>
+  </si>
+  <si>
+    <t>user able to add as many characters as line</t>
+  </si>
+  <si>
+    <t>user able to add as many integers as line</t>
+  </si>
+  <si>
+    <t>test failed, check TTY prompt documentation</t>
   </si>
 </sst>
 </file>
@@ -518,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFE36B0-9AF9-064B-9F74-6DB77319C7A7}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,8 +577,8 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="45.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -552,188 +600,250 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
